--- a/Docs/performance.xlsx
+++ b/Docs/performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b787a19be850ed35/IA na física/projeto2 - classificação de jatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b787a19be850ed35/IA na física/JetTagging/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="174" documentId="11_AD4D361C20488DEA4E38A0EC0C98579C5ADEDD96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4585BB1-1AE2-43CF-894E-A6CF9AB399F2}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +571,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
